--- a/PredictionSheets/VM 2014 Tippekonkuranse - Dag Inge.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse - Dag Inge.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29850" yWindow="-210" windowWidth="25365" windowHeight="14205"/>
+    <workbookView xWindow="29850" yWindow="-210" windowWidth="25365" windowHeight="14205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppespilltipp" sheetId="1" r:id="rId1"/>
     <sheet name="Sluttspilltipp" sheetId="2" r:id="rId2"/>
     <sheet name="Kampoppsett" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -419,9 +424,6 @@
     <t>colombia</t>
   </si>
   <si>
-    <t>Cote d'Ovoire</t>
-  </si>
-  <si>
     <t>Bosnia-H</t>
   </si>
   <si>
@@ -429,6 +431,9 @@
   </si>
   <si>
     <t>Dag Inge Hanakam</t>
+  </si>
+  <si>
+    <t>Côte d ivoire</t>
   </si>
 </sst>
 </file>
@@ -1774,13 +1779,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1810,7 +1815,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -2784,13 +2789,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,7 +2827,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2830,7 +2835,7 @@
         <v>130</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>21</v>
@@ -2861,7 +2866,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>38</v>
@@ -2954,7 +2959,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
